--- a/2022/Symphony/MAY/31.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/31.05.2022/MC Bank Statement May-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\MAY\31.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\May\31.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3250,12 +3250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3287,6 +3281,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6470,67 +6470,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="333" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="334" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
-      <c r="Q3" s="338"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="336"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6539,49 +6539,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="337" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="330" t="s">
+      <c r="D4" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="330" t="s">
+      <c r="E4" s="341" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="330" t="s">
+      <c r="F4" s="341" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="330" t="s">
+      <c r="G4" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="330" t="s">
+      <c r="H4" s="341" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="330" t="s">
+      <c r="I4" s="341" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="330" t="s">
+      <c r="J4" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="330" t="s">
+      <c r="K4" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="330" t="s">
+      <c r="L4" s="341" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="330" t="s">
+      <c r="M4" s="341" t="s">
         <v>258</v>
       </c>
-      <c r="N4" s="330" t="s">
+      <c r="N4" s="341" t="s">
         <v>240</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="330" t="s">
         <v>41</v>
       </c>
       <c r="P4" s="343" t="s">
@@ -6597,21 +6597,21 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="340"/>
-      <c r="B5" s="342"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="333"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="331"/>
       <c r="P5" s="344"/>
       <c r="Q5" s="133" t="s">
         <v>42</v>
@@ -9821,6 +9821,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9837,9 +9840,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9853,8 +9853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12944,14 +12944,14 @@
         <v>1686910</v>
       </c>
       <c r="C29" s="56">
-        <v>1266030</v>
+        <v>1306030</v>
       </c>
       <c r="D29" s="53">
         <v>13950</v>
       </c>
       <c r="E29" s="53">
         <f t="shared" si="0"/>
-        <v>1279980</v>
+        <v>1319980</v>
       </c>
       <c r="F29" s="242"/>
       <c r="G29" s="251"/>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="C33" s="266">
         <f>SUM(C5:C32)</f>
-        <v>16978600</v>
+        <v>17018600</v>
       </c>
       <c r="D33" s="265">
         <f>SUM(D5:D32)</f>
@@ -13370,11 +13370,11 @@
       </c>
       <c r="E33" s="265">
         <f>SUM(E5:E32)</f>
-        <v>17046760</v>
+        <v>17086760</v>
       </c>
       <c r="F33" s="265">
         <f>B33-E33</f>
-        <v>-896160</v>
+        <v>-936160</v>
       </c>
       <c r="G33" s="267"/>
       <c r="H33" s="145"/>
@@ -20903,7 +20903,7 @@
       </c>
       <c r="C98" s="123"/>
       <c r="D98" s="218">
-        <v>42720</v>
+        <v>2720</v>
       </c>
       <c r="E98" s="186" t="s">
         <v>252</v>
@@ -23162,7 +23162,7 @@
       <c r="C119" s="358"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
-        <v>3383495</v>
+        <v>3343495</v>
       </c>
       <c r="E119" s="213"/>
       <c r="F119" s="144"/>
@@ -23369,7 +23369,7 @@
       <c r="C121" s="346"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
-        <v>3383495</v>
+        <v>3343495</v>
       </c>
       <c r="E121" s="213"/>
       <c r="F121" s="144"/>
@@ -34603,7 +34603,7 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
